--- a/biology/Botanique/Flueggea/Flueggea.xlsx
+++ b/biology/Botanique/Flueggea/Flueggea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Flueggea est un genre de plantes à fleurs de la famille des Phyllanthacées (selon la classification APG III) ou de la famille des Euphorbiacées (selon la classification de Cronquist).
 </t>
@@ -511,7 +523,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est formé d'arbrisseaux ou arbustes le plus souvent caducs.
 Les feuilles sont simples, alternes et à court pétiole.
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des espèces sont originaires d'Europe, d'Asie tempérée et tropicale, d'Afrique et du Pacifique y compris l'Australasie.
 </t>
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques usages médicinaux sont signalés (voir les espèces concernées) ainsi que de son bois.
 </t>
@@ -609,7 +627,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La liste des espèces est issue des index IPNI (The International Plant Names Index), du jardin botanique du Missouri (Tropicos) et The Plant List à la date de septembre 2012, avec une recherche bibliographique sur la bibliothèque numérique Biodiversity Heritage Library. L'unique espèce conservée dans le genre et sa sous-espèce sont mises en caractères gras :
 Flueggea abyssinica (A.Rich.) Baill. (1858) : voir Flueggea virosa (Roxb. ex Willd.) Royle
@@ -645,7 +665,7 @@
 Flueggea japonica (Thunb.) Rich. (1807) - espèce du genre homonyme de la famille des Haémodoracées : voir Ophiopogon japonicus (Thunb.) Ker Gawl.
 Flueggea japonica var. intermedia (D. Don) Schult. &amp; Schult.f. (1829) - espèce du genre homonyme de la famille des Haémodoracées : voir Ophiopogon intermedius D.Don
 Flueggea japonica var. major (Thunb.) Schult. &amp; Schult.f. (1829) - espèce du genre homonyme de la famille des Haémodoracées : voir Ophiopogon jaburan (Siebold) Lodd.
-Flueggea japonica var minor (Thunb.) Schult. &amp; Schult.f. (1829) - espèce du genre homonyme de la famille des Haémodoracées : voir Ophiopogon japonicus (Thunb.) Ker Gawl.[2]
+Flueggea japonica var minor (Thunb.) Schult. &amp; Schult.f. (1829) - espèce du genre homonyme de la famille des Haémodoracées : voir Ophiopogon japonicus (Thunb.) Ker Gawl.
 Flueggea japonica var. umbraticola (Hance) Baker (1879) - espèce du genre homonyme de la famille des Haémodoracées : voir Ophiopogon umbraticola Hance
 Flueggea japonica (Miq.) Pax (1890) : voir Flueggea suffruticosa (Pall.) Baill.
 Flueggea javanica Blume (1826) - position incertaine
@@ -669,7 +689,7 @@
 Flueggea ovalis Baill. (1858) : voir Flueggea virosa (Roxb. ex Willd.) Royle
 Flueggea phyllanthoides Baill. (1858) : voir Flueggea virosa (Roxb. ex Willd.) Royle
 Flueggea prolifera (Lindl.) Baker (1879) - espèce du genre homonyme de la famille des Haémodoracées : voir Ophiopogon caulescens (Blume) Baker
-Flueggea retusa (Roxb.) Voigt (1845) : voir Breynia retusa (Roxb.) Alston[3]
+Flueggea retusa (Roxb.) Voigt (1845) : voir Breynia retusa (Roxb.) Alston
 Flueggea schuechiana (Müll.Arg.) G.L.Webster (1984) - synonymes : Acidoton schuechianus (Müll.Arg.) Kuntze, Securinega schuechiana Müll.Arg.
 Flueggea senensis Klotzsch (1861) : voir Flueggea virosa (Roxb. ex Willd.) Royle
 Flueggea serrata Miq. (1859) : voir Celastrus hindsii Benth.
@@ -720,11 +740,13 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1806, Carl Ludwig von Willdenow décrit une première fois ce genre. Il le dédie au botaniste Johannes Flüggé (1775-1816)[4]. L'espèce type est Flueggea leucopyrus Willd..
-En 1866, Johannes Müller Argoviensis transforme l'ensemble du genre Flueggea en section du genre Securinega[5]. Cette modification perdure encore dans de nombreux ouvrages.
-En 1891, Otto Kuntze transfère toutes les espèces dans le genre Acidoton, genre créé par Olof Peter Swartz en 1788[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1806, Carl Ludwig von Willdenow décrit une première fois ce genre. Il le dédie au botaniste Johannes Flüggé (1775-1816). L'espèce type est Flueggea leucopyrus Willd..
+En 1866, Johannes Müller Argoviensis transforme l'ensemble du genre Flueggea en section du genre Securinega. Cette modification perdure encore dans de nombreux ouvrages.
+En 1891, Otto Kuntze transfère toutes les espèces dans le genre Acidoton, genre créé par Olof Peter Swartz en 1788.
 En 1984, Grady L Webster produit une révision complète du genre, en établissant beaucoup de synonymies ainsi que des reclassements (ouvrage cité en référence).
 Depuis 2000, de nombreuses études phylogénétiques ont paru concernant la tribu des Phyllanteae : elles concluent en la monophylogénie du genre Flueggea mais en incluant le genre Richeriella (étude en référence).
 Le genre Flueggea est classé dans la sous-famille Phyllanthoideae tribu Phyllantheae.
